--- a/RE-Framework_RPA09_카카오맵유류비검증_박채연/RPA09_카카오맵유류비검증_Performer/Data/Output/유류비검증_result_temp.xlsx
+++ b/RE-Framework_RPA09_카카오맵유류비검증_박채연/RPA09_카카오맵유류비검증_Performer/Data/Output/유류비검증_result_temp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\카카오맵유류비검증\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sein\Documents\REFramework\RE-Framework_RPA09_카카오맵유류비검증_박채연\RPA09_카카오맵유류비검증_Performer\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3C566F-A91F-418B-AD2A-EF0965B608E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B199729D-61FD-4D9C-A063-D58DE8A1EE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>직번</t>
   </si>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPA수행결과</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -262,46 +266,46 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="O1" sqref="O1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -597,62 +601,65 @@
     <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="10"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -664,14 +671,15 @@
       <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -686,8 +694,9 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -702,8 +711,9 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -718,9 +728,13 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
@@ -728,8 +742,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RE-Framework_RPA09_카카오맵유류비검증_박채연/RPA09_카카오맵유류비검증_Performer/Data/Output/유류비검증_result_temp.xlsx
+++ b/RE-Framework_RPA09_카카오맵유류비검증_박채연/RPA09_카카오맵유류비검증_Performer/Data/Output/유류비검증_result_temp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sein\Documents\REFramework\RE-Framework_RPA09_카카오맵유류비검증_박채연\RPA09_카카오맵유류비검증_Performer\Data\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhkim\OneDrive\바탕 화면\REFramework\RE-Framework_RPA09_카카오맵유류비검증_박채연\RPA09_카카오맵유류비검증_Performer\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B199729D-61FD-4D9C-A063-D58DE8A1EE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DF192E-1B41-45F5-A151-5A37AA3222C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,6 +275,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -295,18 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,7 +592,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O2"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -602,57 +602,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="6" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="N2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="7"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
